--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\telegram_bonus_webapp\webapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Телефон</t>
   </si>
@@ -34,29 +39,35 @@
     <t>Бонусы</t>
   </si>
   <si>
-    <t>+77001112233</t>
-  </si>
-  <si>
-    <t>+77002223344</t>
-  </si>
-  <si>
     <t>ABC123</t>
   </si>
   <si>
     <t>XYZ789</t>
   </si>
   <si>
-    <t>Иванов Иван</t>
-  </si>
-  <si>
-    <t>Петров Пётр</t>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Иванов Иван Петрович</t>
+  </si>
+  <si>
+    <t>Петров Пётр Иванович</t>
+  </si>
+  <si>
+    <t>Зейналов Эдуард Заурович</t>
+  </si>
+  <si>
+    <t>Plmokn</t>
+  </si>
+  <si>
+    <t>Алимбаев Мурат Ермекович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,17 +126,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +182,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,14 +427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,15 +461,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>87001112233</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -453,15 +481,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>87002223344</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -471,6 +499,46 @@
       </c>
       <c r="F3">
         <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>87778017110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>87078948924</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>79990</v>
+      </c>
+      <c r="F5">
+        <v>2490</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>87001112233</v>
+        <v>77001112233</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>87002223344</v>
+        <v>77002223344</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>87778017110</v>
+        <v>77778017110</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>87078948924</v>
+        <v>77078948924</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -119,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,7 +432,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +463,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>77001112233</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -482,10 +483,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>77002223344</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -502,10 +503,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>77778017110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -522,10 +523,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>77078948924</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
